--- a/3 Estudos Quantfin/Dashboard/REGISTROS.xlsx
+++ b/3 Estudos Quantfin/Dashboard/REGISTROS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b29a2c05dc51e92/Trades e investimentos/Swing trades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b29a2c05dc51e92/Repositorios/3 Estudos Quantfin/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_AD4D361C20488DEA4E38A07C6C5F77785ADEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB6515C9-2699-4CB1-B8DD-DCFD8551B9C2}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_AD4D361C20488DEA4E38A07C6C5F77785ADEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBABDBAE-EE37-44DA-BC31-0049B905B7EB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCMFUT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="55">
   <si>
     <t>ENTRADA</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>VIVT3</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
   </si>
 </sst>
 </file>
@@ -496,6 +499,14 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person15.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person16.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -791,11 +802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J130" sqref="J130"/>
+      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4560,6 +4571,9 @@
       <c r="A129" s="2">
         <v>45317</v>
       </c>
+      <c r="B129" s="2">
+        <v>45327</v>
+      </c>
       <c r="C129" s="4" t="s">
         <v>49</v>
       </c>
@@ -4575,7 +4589,33 @@
       <c r="G129" s="4">
         <v>2250</v>
       </c>
+      <c r="I129" s="6">
+        <v>65.45</v>
+      </c>
       <c r="J129" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="6">
+        <v>65.45</v>
+      </c>
+      <c r="G130" s="4">
+        <v>2250</v>
+      </c>
+      <c r="J130" s="8">
         <v>20</v>
       </c>
     </row>
@@ -4608,9 +4648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40F6107-97EA-43C7-9E07-F57A1A1C0926}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5044,7 +5084,25 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45320</v>
+      </c>
       <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>240.85</v>
+      </c>
+      <c r="G15" s="4">
+        <v>330</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
@@ -5382,9 +5440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162CD821-CE59-4BBC-A47C-1ED10D9F616F}">
   <dimension ref="A1:K1048566"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6735,7 +6793,31 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>45417</v>
+      </c>
       <c r="B44" s="2"/>
+      <c r="C44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="6">
+        <v>7.54</v>
+      </c>
+      <c r="G44" s="4">
+        <v>800</v>
+      </c>
+      <c r="H44" s="14">
+        <v>8.15</v>
+      </c>
+      <c r="J44" s="8">
+        <v>14</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
